--- a/medicine/Psychotrope/Château_Magdelaine/Château_Magdelaine.xlsx
+++ b/medicine/Psychotrope/Château_Magdelaine/Château_Magdelaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Magdelaine</t>
+          <t>Château_Magdelaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Château Magdelaine est un ancien domaine viticole de 11 ha situé à Saint-Émilion en Gironde. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Magdelaine</t>
+          <t>Château_Magdelaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le domaine est acquis en 1952 par Jean-Pierre Moueix[1], négociant en vin, fondateur des Établissements Jean-Pierre Moueix (en) à Libourne.
-Situé en AOC saint-émilion-grand-cru[2], il est classé premier grand cru classé B depuis le classement de 1954-58[3].
-En septembre 2012, Château Magdelaine est de nouveau confirmé premier grand cru classé B. L'INAO entérine en même temps sa fusion avec le Château Bélair-Monange[4], premier grand cru classé B contigu, acquis par les Ets. Jean-Pierre Moueix en 2008[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine est acquis en 1952 par Jean-Pierre Moueix, négociant en vin, fondateur des Établissements Jean-Pierre Moueix (en) à Libourne.
+Situé en AOC saint-émilion-grand-cru, il est classé premier grand cru classé B depuis le classement de 1954-58.
+En septembre 2012, Château Magdelaine est de nouveau confirmé premier grand cru classé B. L'INAO entérine en même temps sa fusion avec le Château Bélair-Monange, premier grand cru classé B contigu, acquis par les Ets. Jean-Pierre Moueix en 2008. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Magdelaine</t>
+          <t>Château_Magdelaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de Château Magdelaine s'étendait sur le plateau argilo-calcaire en forme de fer-à-cheval dans le secteur Magdeleine de Saint-Émilion, et de terrasses situées dans les côtes descendant de ce plateau. 
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Magdelaine</t>
+          <t>Château_Magdelaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encépagement était constitué à 90 % de merlot et à 10 % cabernet sauvignon. Les vignes avaient une moyenne d'âge de 40 ans. 
 </t>
